--- a/biology/Zoologie/Cymbulia_peronii/Cymbulia_peronii.xlsx
+++ b/biology/Zoologie/Cymbulia_peronii/Cymbulia_peronii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabot de Vénus
 Cymbulia peronii, le Sabot de Vénus, est une espèce de gastéropodes marins planctoniques de la famille des Cymbuliidae. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un gastéropode pélagique transparent, au pied modifié en « ailes », équipé d'une partie dure portant cinq dents facilement visibles, et mesurant au total un peu plus de 6 cm à l'âge adulte[1]. 
-La coquille, présente à l'état larvaire, est perdue secondairement et remplacée par une pseudo-coquille, la « pseudoconque », de nature cartilagineuse, transparente. Cette pseudoconque présente une adaptation au mode de vie planctonique, car, d'une part, sa densité plus faible confère une meilleure flottabilité à l'animal, et, d'autre part, la transparence constitue une forme de camouflage en milieu marin ouvert. Cette pseudoconque est parfois retrouvée sur les plages dans les laisses de mer, et communément appelée « Sabot de Vénus »[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un gastéropode pélagique transparent, au pied modifié en « ailes », équipé d'une partie dure portant cinq dents facilement visibles, et mesurant au total un peu plus de 6 cm à l'âge adulte. 
+La coquille, présente à l'état larvaire, est perdue secondairement et remplacée par une pseudo-coquille, la « pseudoconque », de nature cartilagineuse, transparente. Cette pseudoconque présente une adaptation au mode de vie planctonique, car, d'une part, sa densité plus faible confère une meilleure flottabilité à l'animal, et, d'autre part, la transparence constitue une forme de camouflage en milieu marin ouvert. Cette pseudoconque est parfois retrouvée sur les plages dans les laisses de mer, et communément appelée « Sabot de Vénus ». 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette espèce dans tout l'espace Atlantique, Méditerranée comprise[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce dans tout l'espace Atlantique, Méditerranée comprise. 
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cymbulia peronii Blainville, 1818[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : sabot de Vénus[3].
-Cymbulia peronii a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cymbulia peronii Blainville, 1818.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : sabot de Vénus.
+Cymbulia peronii a pour synonymes :
 Cymbulia borealis Bonnevie, 1913
 Cymbulia peroni
 Cymbulia peronii f. minor van der Spoel, 1976
